--- a/biology/Zoologie/Amara_familiaris/Amara_familiaris.xlsx
+++ b/biology/Zoologie/Amara_familiaris/Amara_familiaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amara familiaris est une espèce d'insectes de l'ordre des coléoptères, de la famille des carabidés et du genre Amara.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bord antérieur du pronotum est nettement échancré et les angles antérieurs saillants. Le deuxième article des tarses antérieurs du mâle est aussi large que le premier. Il est brun foncé mais peut parfois être verdâdre ou bleuâtre[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bord antérieur du pronotum est nettement échancré et les angles antérieurs saillants. Le deuxième article des tarses antérieurs du mâle est aussi large que le premier. Il est brun foncé mais peut parfois être verdâdre ou bleuâtre.
 </t>
         </is>
       </c>
@@ -544,10 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Répartition
-Amara familiaris est présent en France (dont Nord-Pas-de-Calais) et dans presque toute l'aire paléarctique[3].
-Habitat
-On rencontre cette espèce dans les friches, les lisières des forêts, les prairies ou encore dans les jardins[3].
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amara familiaris est présent en France (dont Nord-Pas-de-Calais) et dans presque toute l'aire paléarctique.
 </t>
         </is>
       </c>
@@ -573,12 +590,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre cette espèce dans les friches, les lisières des forêts, les prairies ou encore dans les jardins.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Amara_familiaris</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amara_familiaris</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (20 août 2014)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (20 août 2014) :
 Amara angulata Letzner, 1852
 Amara antennata Letzner, 1852
 Amara atrata Heer, 1837
